--- a/test/tests.xlsx
+++ b/test/tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive - Eotvos Lorand Tudomanyegyetem\egyetem\Kutmod\kutmod\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82285A4E-AE59-4BB9-80AD-0F2C09DD4B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C43928-A308-402A-A3B5-0FABAE9EBF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{9A0E6D49-351C-40D8-8A63-05B3AF49A63E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{9A0E6D49-351C-40D8-8A63-05B3AF49A63E}"/>
   </bookViews>
   <sheets>
     <sheet name="allBugCount" sheetId="2" r:id="rId1"/>
@@ -20,11 +20,10 @@
     <sheet name="4 bug" sheetId="3" r:id="rId5"/>
     <sheet name="5 bug" sheetId="7" r:id="rId6"/>
     <sheet name="Átlagos patch accuracy bugcount" sheetId="8" r:id="rId7"/>
-    <sheet name="Munka2" sheetId="10" r:id="rId8"/>
-    <sheet name="tests" sheetId="1" r:id="rId9"/>
+    <sheet name="tests" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">tests!$A$1:$G$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">tests!$A$1:$G$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -695,7 +694,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>All</a:t>
+              <a:t>All bugs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -731,7 +730,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0564726418376692E-2"/>
+          <c:y val="7.7644126321230744E-2"/>
+          <c:w val="0.93129605559986084"/>
+          <c:h val="0.75384921469558697"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -7541,6 +7550,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39778701884787532"/>
+          <c:y val="0.91966363217384361"/>
+          <c:w val="0.20852367720976808"/>
+          <c:h val="4.2655206494742103E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7577,6 +7627,7 @@
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7615,7 +7666,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>1 bug</a:t>
+              <a:t>Tests with 1 bug</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7656,10 +7707,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2584501926630647E-2"/>
-          <c:y val="0.1175734527522512"/>
+          <c:x val="9.2584533246177714E-2"/>
+          <c:y val="8.2011782936747421E-2"/>
           <c:w val="0.88452450067711252"/>
-          <c:h val="0.83181530245509694"/>
+          <c:h val="0.77742691996510715"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8760,6 +8811,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23470596267001528"/>
+          <c:y val="0.91998586100298596"/>
+          <c:w val="0.36674113598319391"/>
+          <c:h val="3.1901359083086694E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8796,6 +8888,7 @@
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -8833,12 +8926,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU"/>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tests with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400"/>
               <a:t>2</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t> bug</a:t>
+              <a:rPr lang="hu-HU" sz="1400" baseline="0"/>
+              <a:t> bugs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10734,6 +10838,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39468488113162475"/>
+          <c:y val="0.90153534525278856"/>
+          <c:w val="0.26116264542047235"/>
+          <c:h val="4.6229156390943299E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10770,6 +10915,7 @@
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -10807,8 +10953,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>3 bug</a:t>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tests with </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1400"/>
+              <a:t>3 bugs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12693,6 +12850,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3660043254192421"/>
+          <c:y val="0.94332374393780305"/>
+          <c:w val="0.23931079344913303"/>
+          <c:h val="1.4887857377182413E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -12729,6 +12927,7 @@
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -12766,8 +12965,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tests with </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>4 bug</a:t>
+              <a:t>4 bugs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14502,6 +14712,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27215115889554803"/>
+          <c:y val="0.95142049296490661"/>
+          <c:w val="0.43111434874114735"/>
+          <c:h val="3.6042987429589009E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -14533,6 +14784,7 @@
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -14570,8 +14822,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Tests with </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>5 bug</a:t>
+              <a:t>5 bugs</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -15562,6 +15825,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -15706,6 +15970,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23470596267001528"/>
+          <c:y val="0.95345562094310932"/>
+          <c:w val="0.53058796714892542"/>
+          <c:h val="3.3993219079344404E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -15742,6 +16047,7 @@
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -15780,7 +16086,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>Átlagos patch accuracy bug countonként</a:t>
+              <a:t>Avg patch accuracy/bug count</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -20381,10 +20687,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C2892888-9FCF-40AA-A2D7-9625B4BA4373}">
   <sheetPr codeName="Diagram2"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20395,7 +20702,8 @@
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20406,7 +20714,8 @@
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20417,7 +20726,8 @@
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20428,7 +20738,8 @@
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20439,7 +20750,8 @@
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20450,7 +20762,8 @@
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -20487,7 +20800,205 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16233</cdr:x>
+      <cdr:y>0.94157</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83436</cdr:x>
+      <cdr:y>0.98232</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BFDF62-719E-C6BB-6D49-1800CA77421C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1509471" y="5723072"/>
+          <a:ext cx="6249272" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17595DEB-4920-C0A9-D0A0-A6456CD97C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16296</cdr:x>
+      <cdr:y>0.94147</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83482</cdr:x>
+      <cdr:y>0.98226</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BBCD48-3757-EAC2-79FD-2B5A59E2C8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1515718" y="5715792"/>
+          <a:ext cx="6249272" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CDD6C1-6AC8-938C-E6D9-7E3159D505A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16391</cdr:x>
+      <cdr:y>0.92018</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83603</cdr:x>
+      <cdr:y>0.96101</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132F2983-1BB1-DACB-3B80-14EBF5560C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1524000" y="5582478"/>
+          <a:ext cx="6249272" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -20520,7 +21031,51 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16296</cdr:x>
+      <cdr:y>0.92633</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83482</cdr:x>
+      <cdr:y>0.96713</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="3" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129E913E-1DE5-7D5D-6AE5-44D2D6FE2BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1515718" y="5623891"/>
+          <a:ext cx="6249272" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -20553,7 +21108,51 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.1658</cdr:x>
+      <cdr:y>0.90173</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83784</cdr:x>
+      <cdr:y>0.94248</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AFCBBA-A0A2-94C6-3AA5-826EA0F6C4A8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1541759" y="5480911"/>
+          <a:ext cx="6249272" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -20586,7 +21185,51 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16233</cdr:x>
+      <cdr:y>0.9243</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83436</cdr:x>
+      <cdr:y>0.96505</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="2" name="chart">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5346B6DB-D7CB-FD0A-3E5F-80B775C74CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1509470" y="5618136"/>
+          <a:ext cx="6249272" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -20597,72 +21240,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3E78A8-431E-AAA4-EC5D-0EC4BA688C68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6071152"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17595DEB-4920-C0A9-D0A0-A6456CD97C2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CDD6C1-6AC8-938C-E6D9-7E3159D505A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21001,25 +21578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951D34D9-9B68-47CF-A587-9A6F53477AED}">
-  <sheetPr codeName="Munka10"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD81E127-B4C7-4E17-B665-504999F13628}">
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:R221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27202,5 +27766,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/tests.xlsx
+++ b/test/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive - Eotvos Lorand Tudomanyegyetem\egyetem\Kutmod\kutmod\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C43928-A308-402A-A3B5-0FABAE9EBF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3387043-E1F6-44B9-BC65-B61B2B1F50CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{9A0E6D49-351C-40D8-8A63-05B3AF49A63E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{9A0E6D49-351C-40D8-8A63-05B3AF49A63E}"/>
   </bookViews>
   <sheets>
     <sheet name="allBugCount" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="4 bug" sheetId="3" r:id="rId5"/>
     <sheet name="5 bug" sheetId="7" r:id="rId6"/>
     <sheet name="Átlagos patch accuracy bugcount" sheetId="8" r:id="rId7"/>
-    <sheet name="tests" sheetId="1" r:id="rId8"/>
+    <sheet name="avg new bugs" sheetId="9" r:id="rId8"/>
+    <sheet name="tests" sheetId="1" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">tests!$A$1:$G$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">tests!$A$1:$G$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="22">
   <si>
     <t>introducing new bugs</t>
   </si>
@@ -15825,7 +15826,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -16752,6 +16752,320 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> new bugs</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tests!$K$3:$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ChatGPT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Claude-3.5-Sonnet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Copilot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gemini-1.5-Pro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DeepSeek-Large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tests!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A63-4B76-A5A6-DF1F4790FD08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1851437439"/>
+        <c:axId val="1851422559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1851437439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851422559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1851422559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851437439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -17032,6 +17346,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -20683,6 +21037,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C2892888-9FCF-40AA-A2D7-9625B4BA4373}">
   <sheetPr codeName="Diagram2"/>
@@ -20760,6 +21617,18 @@
   <sheetPr codeName="Diagram8"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B4BDF504-EF11-437F-B574-A92F15BC3CED}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -20932,6 +21801,39 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CDD6C1-6AC8-938C-E6D9-7E3159D505A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9287435" cy="6069106"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EA4755-1A3A-BB96-8D22-69D9686B6ACD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21582,22 +22484,22 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:R221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="G1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -21620,7 +22522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -21662,7 +22564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15</v>
       </c>
@@ -21688,6 +22590,12 @@
         <f t="shared" ref="H3:H66" si="0">COUNTIFS($D$2:$D$221,D3,$E$2:$E$221,E3)</f>
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.36</v>
+      </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
@@ -21712,7 +22620,7 @@
         <v>92.25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19</v>
       </c>
@@ -21738,6 +22646,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0.33</v>
+      </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
@@ -21762,7 +22676,7 @@
         <v>97.100000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -21788,6 +22702,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0.3</v>
+      </c>
       <c r="M5" t="s">
         <v>4</v>
       </c>
@@ -21812,7 +22732,7 @@
         <v>93.133333333333326</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
@@ -21838,6 +22758,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>0.32</v>
+      </c>
       <c r="M6" t="s">
         <v>5</v>
       </c>
@@ -21862,7 +22788,7 @@
         <v>99.600000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>47</v>
       </c>
@@ -21888,6 +22814,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>0.35</v>
+      </c>
       <c r="M7" t="s">
         <v>6</v>
       </c>
@@ -21912,7 +22844,7 @@
         <v>92.916666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21939,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15</v>
       </c>
@@ -21969,7 +22901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19</v>
       </c>
@@ -21996,7 +22928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -22043,7 +22975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>32</v>
       </c>
@@ -22069,6 +23001,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="J12">
+        <f>AVERAGE(G2:G221)</f>
+        <v>0.10909090909090909</v>
+      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -22085,7 +23021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>47</v>
       </c>
@@ -22112,7 +23048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6</v>
       </c>
@@ -22139,7 +23075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -22166,7 +23102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -22193,7 +23129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -22226,7 +23162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>32</v>
       </c>
@@ -22259,7 +23195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>47</v>
       </c>
@@ -22292,7 +23228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -22325,7 +23261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -22358,7 +23294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -22385,7 +23321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>24</v>
       </c>
@@ -22412,7 +23348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -22439,7 +23375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>47</v>
       </c>
@@ -22466,7 +23402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -22493,7 +23429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15</v>
       </c>
@@ -22520,7 +23456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
@@ -22547,7 +23483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -22574,7 +23510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>32</v>
       </c>
@@ -22601,7 +23537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>47</v>
       </c>
@@ -22628,7 +23564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -22655,7 +23591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -22682,7 +23618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -22709,7 +23645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>9</v>
       </c>
@@ -22736,7 +23672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -22763,7 +23699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>16</v>
       </c>
@@ -22790,7 +23726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>30</v>
       </c>
@@ -22817,7 +23753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>31</v>
       </c>
@@ -22844,7 +23780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -22871,7 +23807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -22898,7 +23834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -22925,7 +23861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -22952,7 +23888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>7</v>
       </c>
@@ -22979,7 +23915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -23006,7 +23942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -23033,7 +23969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12</v>
       </c>
@@ -23060,7 +23996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16</v>
       </c>
@@ -23087,7 +24023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>30</v>
       </c>
@@ -23114,7 +24050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>31</v>
       </c>
@@ -23141,7 +24077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>38</v>
       </c>
@@ -23168,7 +24104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>42</v>
       </c>
@@ -23195,7 +24131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>44</v>
       </c>
@@ -23222,7 +24158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -23249,7 +24185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7</v>
       </c>
@@ -23276,7 +24212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
@@ -23303,7 +24239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9</v>
       </c>
@@ -23330,7 +24266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -23357,7 +24293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16</v>
       </c>
@@ -23384,7 +24320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>30</v>
       </c>
@@ -23411,7 +24347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>31</v>
       </c>
@@ -23438,7 +24374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>38</v>
       </c>
@@ -23465,7 +24401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>42</v>
       </c>
@@ -23492,7 +24428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>44</v>
       </c>
@@ -23519,7 +24455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3</v>
       </c>
@@ -23546,7 +24482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7</v>
       </c>
@@ -23573,7 +24509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>8</v>
       </c>
@@ -23600,7 +24536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9</v>
       </c>
@@ -23627,7 +24563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -23654,7 +24590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>16</v>
       </c>
@@ -23681,7 +24617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>30</v>
       </c>
@@ -23708,7 +24644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>31</v>
       </c>
@@ -23735,7 +24671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>38</v>
       </c>
@@ -23762,7 +24698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>42</v>
       </c>
@@ -23789,7 +24725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>44</v>
       </c>
@@ -23816,7 +24752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3</v>
       </c>
@@ -23843,7 +24779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7</v>
       </c>
@@ -23870,7 +24806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8</v>
       </c>
@@ -23897,7 +24833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>9</v>
       </c>
@@ -23924,7 +24860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12</v>
       </c>
@@ -23951,7 +24887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>16</v>
       </c>
@@ -23978,7 +24914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>30</v>
       </c>
@@ -24005,7 +24941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>31</v>
       </c>
@@ -24032,7 +24968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>38</v>
       </c>
@@ -24059,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>42</v>
       </c>
@@ -24086,7 +25022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>44</v>
       </c>
@@ -24113,7 +25049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -24140,7 +25076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>11</v>
       </c>
@@ -24167,7 +25103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>20</v>
       </c>
@@ -24194,7 +25130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>23</v>
       </c>
@@ -24221,7 +25157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>27</v>
       </c>
@@ -24248,7 +25184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>33</v>
       </c>
@@ -24275,7 +25211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>34</v>
       </c>
@@ -24302,7 +25238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>39</v>
       </c>
@@ -24329,7 +25265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>40</v>
       </c>
@@ -24356,7 +25292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>48</v>
       </c>
@@ -24383,7 +25319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>50</v>
       </c>
@@ -24410,7 +25346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -24437,7 +25373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>11</v>
       </c>
@@ -24464,7 +25400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>20</v>
       </c>
@@ -24491,7 +25427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>23</v>
       </c>
@@ -24518,7 +25454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>27</v>
       </c>
@@ -24545,7 +25481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>33</v>
       </c>
@@ -24572,7 +25508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>34</v>
       </c>
@@ -24599,7 +25535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>39</v>
       </c>
@@ -24626,7 +25562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>40</v>
       </c>
@@ -24653,7 +25589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>48</v>
       </c>
@@ -24680,7 +25616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>50</v>
       </c>
@@ -24707,7 +25643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -24734,7 +25670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11</v>
       </c>
@@ -24761,7 +25697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>20</v>
       </c>
@@ -24788,7 +25724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>23</v>
       </c>
@@ -24815,7 +25751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>27</v>
       </c>
@@ -24842,7 +25778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>33</v>
       </c>
@@ -24869,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>34</v>
       </c>
@@ -24896,7 +25832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>39</v>
       </c>
@@ -24923,7 +25859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>40</v>
       </c>
@@ -24950,7 +25886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>48</v>
       </c>
@@ -24977,7 +25913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>50</v>
       </c>
@@ -25004,7 +25940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -25031,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>11</v>
       </c>
@@ -25058,7 +25994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>20</v>
       </c>
@@ -25085,7 +26021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>23</v>
       </c>
@@ -25112,7 +26048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>27</v>
       </c>
@@ -25139,7 +26075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>33</v>
       </c>
@@ -25166,7 +26102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>34</v>
       </c>
@@ -25193,7 +26129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>39</v>
       </c>
@@ -25220,7 +26156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>40</v>
       </c>
@@ -25247,7 +26183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>48</v>
       </c>
@@ -25274,7 +26210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>50</v>
       </c>
@@ -25301,7 +26237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -25328,7 +26264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>11</v>
       </c>
@@ -25355,7 +26291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>20</v>
       </c>
@@ -25382,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>23</v>
       </c>
@@ -25409,7 +26345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>27</v>
       </c>
@@ -25436,7 +26372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>33</v>
       </c>
@@ -25463,7 +26399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>34</v>
       </c>
@@ -25490,7 +26426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>39</v>
       </c>
@@ -25517,7 +26453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>40</v>
       </c>
@@ -25544,7 +26480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>48</v>
       </c>
@@ -25571,7 +26507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>50</v>
       </c>
@@ -25598,7 +26534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -25625,7 +26561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4</v>
       </c>
@@ -25652,7 +26588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>5</v>
       </c>
@@ -25679,7 +26615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>10</v>
       </c>
@@ -25706,7 +26642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -25733,7 +26669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>17</v>
       </c>
@@ -25760,7 +26696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>21</v>
       </c>
@@ -25787,7 +26723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>26</v>
       </c>
@@ -25814,7 +26750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>43</v>
       </c>
@@ -25841,7 +26777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>45</v>
       </c>
@@ -25868,7 +26804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2</v>
       </c>
@@ -25895,7 +26831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4</v>
       </c>
@@ -25922,7 +26858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5</v>
       </c>
@@ -25949,7 +26885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10</v>
       </c>
@@ -25976,7 +26912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>14</v>
       </c>
@@ -26003,7 +26939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>17</v>
       </c>
@@ -26030,7 +26966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>21</v>
       </c>
@@ -26057,7 +26993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>26</v>
       </c>
@@ -26084,7 +27020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>43</v>
       </c>
@@ -26111,7 +27047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>45</v>
       </c>
@@ -26138,7 +27074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2</v>
       </c>
@@ -26165,7 +27101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4</v>
       </c>
@@ -26192,7 +27128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5</v>
       </c>
@@ -26219,7 +27155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>10</v>
       </c>
@@ -26246,7 +27182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>14</v>
       </c>
@@ -26273,7 +27209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>17</v>
       </c>
@@ -26300,7 +27236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>21</v>
       </c>
@@ -26327,7 +27263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>26</v>
       </c>
@@ -26354,7 +27290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>43</v>
       </c>
@@ -26381,7 +27317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>45</v>
       </c>
@@ -26408,7 +27344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2</v>
       </c>
@@ -26435,7 +27371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4</v>
       </c>
@@ -26462,7 +27398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5</v>
       </c>
@@ -26489,7 +27425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>10</v>
       </c>
@@ -26516,7 +27452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -26543,7 +27479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>17</v>
       </c>
@@ -26570,7 +27506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>21</v>
       </c>
@@ -26597,7 +27533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>26</v>
       </c>
@@ -26624,7 +27560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>43</v>
       </c>
@@ -26651,7 +27587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>45</v>
       </c>
@@ -26678,7 +27614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2</v>
       </c>
@@ -26705,7 +27641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>4</v>
       </c>
@@ -26732,7 +27668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>5</v>
       </c>
@@ -26759,7 +27695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>10</v>
       </c>
@@ -26786,7 +27722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -26813,7 +27749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>17</v>
       </c>
@@ -26840,7 +27776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>21</v>
       </c>
@@ -26867,7 +27803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>26</v>
       </c>
@@ -26894,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>43</v>
       </c>
@@ -26921,7 +27857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>45</v>
       </c>
@@ -26948,7 +27884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>13</v>
       </c>
@@ -26975,7 +27911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>18</v>
       </c>
@@ -27002,7 +27938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>25</v>
       </c>
@@ -27029,7 +27965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>35</v>
       </c>
@@ -27056,7 +27992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>36</v>
       </c>
@@ -27083,7 +28019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>37</v>
       </c>
@@ -27110,7 +28046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>13</v>
       </c>
@@ -27137,7 +28073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>18</v>
       </c>
@@ -27164,7 +28100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>25</v>
       </c>
@@ -27191,7 +28127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>35</v>
       </c>
@@ -27218,7 +28154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>36</v>
       </c>
@@ -27245,7 +28181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>37</v>
       </c>
@@ -27272,7 +28208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>13</v>
       </c>
@@ -27299,7 +28235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>18</v>
       </c>
@@ -27326,7 +28262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>25</v>
       </c>
@@ -27353,7 +28289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>35</v>
       </c>
@@ -27380,7 +28316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>36</v>
       </c>
@@ -27407,7 +28343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>37</v>
       </c>
@@ -27434,7 +28370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>13</v>
       </c>
@@ -27461,7 +28397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>18</v>
       </c>
@@ -27488,7 +28424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>25</v>
       </c>
@@ -27515,7 +28451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>35</v>
       </c>
@@ -27542,7 +28478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>36</v>
       </c>
@@ -27569,7 +28505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>37</v>
       </c>
@@ -27596,7 +28532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>13</v>
       </c>
@@ -27623,7 +28559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>18</v>
       </c>
@@ -27650,7 +28586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>25</v>
       </c>
@@ -27677,7 +28613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>35</v>
       </c>
@@ -27704,7 +28640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>36</v>
       </c>
@@ -27731,7 +28667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>37</v>
       </c>
